--- a/MIAPPE_Checklist_Data_Model.xlsx
+++ b/MIAPPE_Checklist_Data_Model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="MIAPPE_Checklist_Data_Model" sheetId="1" state="visible" r:id="rId3"/>
@@ -2433,8 +2433,8 @@
   </sheetPr>
   <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4564,7 +4564,7 @@
   </sheetPr>
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
